--- a/exports/attendance-2025-11-26.xlsx
+++ b/exports/attendance-2025-11-26.xlsx
@@ -1,42 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10-1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10-10" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10-2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10-3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10-4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10-5" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10-6" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10-7" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10-8" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10-9" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-1" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-10" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-2" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-3" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-4" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-5" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-6" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-7" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-8" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-9" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12-1" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12-10" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12-2" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12-3" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12-4" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12-5" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12-6" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12-7" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12-8" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12-9" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="10-1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="10-10" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="10-2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="10-3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="10-4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="10-5" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="10-6" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="10-7" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="10-8" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="10-9" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="11-1" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="11-10" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="11-2" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="11-3" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="11-4" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="11-5" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="11-6" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="11-7" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="11-8" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="11-9" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="12-1" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="12-10" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="12-2" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="12-3" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="12-4" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="12-5" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="12-6" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="12-7" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="12-8" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="12-9" sheetId="30" state="visible" r:id="rId30"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,7 +484,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P14</t>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>P4</t>
         </is>
       </c>
     </row>
@@ -496,7 +506,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -511,6 +531,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -523,6 +553,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -532,7 +572,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>P</t>
         </is>
       </c>
     </row>
@@ -547,6 +597,16 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -556,7 +616,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>P</t>
         </is>
       </c>
     </row>
@@ -571,6 +641,16 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -583,6 +663,16 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -595,6 +685,16 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -607,6 +707,16 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -619,6 +729,16 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -631,6 +751,16 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -643,6 +773,16 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -655,6 +795,16 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -667,6 +817,16 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -679,6 +839,16 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -691,6 +861,16 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -703,6 +883,16 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -715,6 +905,16 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -727,6 +927,16 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -739,6 +949,16 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -751,6 +971,16 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -763,6 +993,16 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -775,6 +1015,16 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -787,6 +1037,16 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -799,6 +1059,16 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -811,6 +1081,16 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -823,6 +1103,16 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -835,6 +1125,16 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -847,6 +1147,16 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -859,6 +1169,16 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -871,6 +1191,16 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -883,6 +1213,16 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -895,6 +1235,16 @@
           <t>P:30 A:3</t>
         </is>
       </c>
+      <c r="C36" s="1" t="inlineStr">
+        <is>
+          <t>P:30 A:3</t>
+        </is>
+      </c>
+      <c r="D36" s="1" t="inlineStr">
+        <is>
+          <t>P:30 A:3</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -904,9 +1254,11 @@
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> مؤيد اسعد حسين دناوي </t>
-        </is>
-      </c>
+          <t xml:space="preserve"> مؤيد اسعد حسين دناوي , أحمد عطا موسى, أحمد محمد عباس كرمل</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr"/>
+      <c r="D37" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6428,7 +6780,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A36"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6449,6 +6801,21 @@
           <t>الطالب</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6456,6 +6823,21 @@
           <t>اياد خالد صاري</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6463,6 +6845,21 @@
           <t>بسام نبيل ابوعلي</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -6470,6 +6867,21 @@
           <t>تميم حمد محمد القمرا المرى</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -6477,6 +6889,21 @@
           <t>تميم صالح حمد النابت المرى</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6484,6 +6911,21 @@
           <t>حمد جارالله محمد البريدى المرى</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6491,6 +6933,21 @@
           <t>حمد سعيد حمد الغفرانى المرى</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6498,6 +6955,21 @@
           <t>حمد قابل بادشاه سان بادشاه</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6505,6 +6977,21 @@
           <t>راشد ناصر راشد العوامى المرى</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6512,6 +6999,21 @@
           <t>سالم سعد سالم الهولى النعيمى</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6519,6 +7021,21 @@
           <t>سالم صالح سالم سعيد العيده</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6526,6 +7043,21 @@
           <t>سعود سالم حمد النابت المرى</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6533,6 +7065,21 @@
           <t>سعود سالم حمد على الكربى</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6540,6 +7087,21 @@
           <t>سعيد حمد على راشد ملهيه</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6547,6 +7109,21 @@
           <t>سلطان عمر</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6554,6 +7131,21 @@
           <t>سليمان محسن عوض اليهرى اليافعى</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6561,6 +7153,21 @@
           <t>عبدالرحمن على محمود طلبه عامر</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6568,6 +7175,21 @@
           <t>عبدالله ايمن عبدالحميد محمد خضر</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6575,6 +7197,21 @@
           <t>عبدالله راشد حمد على العذبى</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6582,6 +7219,21 @@
           <t>عبدالله سعيد جابر البريدى المرى</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6589,6 +7241,21 @@
           <t>عبدالله سعيد علي المري</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6596,6 +7263,21 @@
           <t>عبدالله محمد حميدى سالم العذبه</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6603,6 +7285,21 @@
           <t>على سالم محمد البريص المرى</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6610,6 +7307,21 @@
           <t>محمد سالم راشد حمد صبيح</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6617,6 +7329,21 @@
           <t>محمد عبدالهادى محمد سعيد عزب</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6624,6 +7351,21 @@
           <t>محمد فريد عباس بشير</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6631,6 +7373,21 @@
           <t>محمد ناصر السر ناصر</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6638,6 +7395,21 @@
           <t>محمد هشام احمد محمد الجزار</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6645,6 +7417,21 @@
           <t>محمد يوسف احمد هياجنه</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6652,6 +7439,21 @@
           <t>مسفر فارس محمد ذفال الحبابى</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6659,6 +7461,21 @@
           <t>مشهور عليان محمد صالح المري</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6666,6 +7483,21 @@
           <t>ناصر ماجد سعد شالح الدوسرى</t>
         </is>
       </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6673,6 +7505,21 @@
           <t>يوسف على بخيت البريدى المرى</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -6680,13 +7527,35 @@
           <t>الإجمالي</t>
         </is>
       </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>P:31 A:1</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <t>P:22 A:10</t>
+        </is>
+      </c>
+      <c r="D35" s="1" t="inlineStr">
+        <is>
+          <t>P:29 A:3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">المعلم: </t>
-        </is>
-      </c>
+          <t>المعلم:</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>أحمد محمد عباس كرمل,  مؤيد اسعد حسين دناوي , أحمد عطا موسى</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr"/>
+      <c r="D36" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6970,7 +7839,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A36"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6991,6 +7860,21 @@
           <t>الطالب</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6998,6 +7882,21 @@
           <t>جمال التهامي زروق</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7005,6 +7904,21 @@
           <t>حمد منصور بلوج</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7012,6 +7926,21 @@
           <t>زايد حميدى على الحميدى المقارح</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7019,6 +7948,21 @@
           <t>سالم حمد جارالله الغفرانى المرى</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7026,6 +7970,21 @@
           <t>سالم على منصر القايد الغياثين</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7033,6 +7992,21 @@
           <t>شقران حمد راشد التويجر المرى</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7040,6 +8014,21 @@
           <t>صالح محمد سعيد صالح ملهيه</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7047,6 +8036,21 @@
           <t>عبدالرحمن حاتم محمد حسين السعدي</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7054,6 +8058,21 @@
           <t>عبدالله بريك هادى محمد هادى</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7061,6 +8080,21 @@
           <t>عبدالله راشد مبارك الجربوعى المرى</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7068,6 +8102,21 @@
           <t>على احمد رسول</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -7075,6 +8124,21 @@
           <t>على احمد سالم مشاجل الكثيرى</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7082,6 +8146,21 @@
           <t>على راشد على بعيهان النابت</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7089,6 +8168,21 @@
           <t>على عبدالله على ابوشارب المسعود</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7096,6 +8190,21 @@
           <t>عمر نورالدين الحريري</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7103,6 +8212,21 @@
           <t>فهد محمد ناصر ال حارث اليامى</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7110,6 +8234,21 @@
           <t>محمد حسين صالح محمد الشريف</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7117,6 +8256,21 @@
           <t>محمد رفيق فرحان احمد دلول</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7124,6 +8278,21 @@
           <t>محمد سعيد فهد الخديعه المرى</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -7131,6 +8300,21 @@
           <t>محمد عبدالله محمد مبارك النابت</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7138,6 +8322,21 @@
           <t>محمد على حمد على مقارح</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7145,6 +8344,21 @@
           <t>محمد على محمد نعيمى</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7152,6 +8366,21 @@
           <t>محمد مبارك راشد مبارك الهاجرى</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7159,6 +8388,21 @@
           <t>محمد ياسر ثابت عثمان السعدى</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7166,6 +8410,21 @@
           <t>محمد ياسين محسن الصانع</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7173,6 +8432,21 @@
           <t>مسعود خالد مسعود الحميدانى القحطانى</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7180,6 +8454,21 @@
           <t>مصعب ابراهيم المهدى قناو</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7187,6 +8476,21 @@
           <t>معتزبالله احمد صابر خليفه الديب</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7194,6 +8498,21 @@
           <t>ناصر سالم ناصر المهرى</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7201,6 +8520,21 @@
           <t>ناصر عبدالله حمد النابتى المرى</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7208,6 +8542,21 @@
           <t>نواف ظافر محمد الهرمسى الهاجرى</t>
         </is>
       </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7215,6 +8564,21 @@
           <t>يوسف عبدالعزيز محسن اليهري اليافعي</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -7222,13 +8586,35 @@
           <t>الإجمالي</t>
         </is>
       </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>P:30 A:2</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <t>P:30 A:2</t>
+        </is>
+      </c>
+      <c r="D35" s="1" t="inlineStr">
+        <is>
+          <t>P:30 A:2</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">المعلم: </t>
-        </is>
-      </c>
+          <t>المعلم:</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">أحمد عطا موسى, أحمد محمد عباس كرمل,  مؤيد اسعد حسين دناوي </t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr"/>
+      <c r="D36" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7241,7 +8627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A35"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7262,6 +8648,26 @@
           <t>الطالب</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7269,6 +8675,26 @@
           <t>احمد عبدالله على العريض المرى</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7276,6 +8702,26 @@
           <t>احمد محمد محمود</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7283,6 +8729,26 @@
           <t>احمد وائل عثمان الحاج احمد</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7290,6 +8756,26 @@
           <t>جابر صالح على السنارى الجحيش</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7297,6 +8783,26 @@
           <t>جابر هادى جابر البريدى المرى</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7304,6 +8810,26 @@
           <t>جارالله سعيد حمد سالمين المرى</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7311,6 +8837,26 @@
           <t>جاسم حمد راشد سالم المرى</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7318,6 +8864,26 @@
           <t>حمد محمد حمد عوير القاشوطى</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7325,6 +8891,26 @@
           <t>خالد سعيد عبدالهادى البريص المرى</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7332,6 +8918,26 @@
           <t>راشد جارالله راشد المسعود العذبه</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7339,6 +8945,26 @@
           <t>سالم حمد سالم الكاموخه المرى</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -7346,6 +8972,26 @@
           <t>سالم سلطان سالم راشد العلوي</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7353,6 +8999,26 @@
           <t>سعيد ناصر سعيد المريزيق المرى</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7360,6 +9026,26 @@
           <t>عايض راشد خجيم راشد العذبه</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7367,6 +9053,26 @@
           <t>عبدالرحمن جهاد عمر عوض بانى</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7374,6 +9080,26 @@
           <t>عبدالرحمن عبدالعزيز المهيني</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7381,6 +9107,26 @@
           <t>عبدالرحمن محمد ناجى عبدالمنعم ناجى</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7388,6 +9134,26 @@
           <t>عبدالله راشد سعيد محمد النابت</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7395,6 +9161,26 @@
           <t>عبدالله علي هوتي</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -7402,6 +9188,26 @@
           <t>عبدالله محمد عبدالله البريدى المرى</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7409,6 +9215,26 @@
           <t>فهد محمد حمد الشريف الكربى</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7416,6 +9242,26 @@
           <t>فيصل ساجد عبدالله البلوشي</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7423,6 +9269,26 @@
           <t>مبارك حمد سالم حمد المرى</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7430,6 +9296,26 @@
           <t>محمد حسين على الغفرانى المرى</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7437,6 +9323,26 @@
           <t>محمد حمد راشد طفله الفهيده</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7444,6 +9350,26 @@
           <t>محمد سعيد سالم سعيد بن نوره</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7451,6 +9377,26 @@
           <t>محمد سليم على سالم المرى</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7458,6 +9404,26 @@
           <t>محمد عبدالعزيز المهيني</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7465,6 +9431,26 @@
           <t>ناصر على قائد على مشرح</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7472,6 +9458,26 @@
           <t>ناصر مبارك محمد النابت المرى</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7479,6 +9485,26 @@
           <t>يوسف العوضي سعيد معتيق مهومد</t>
         </is>
       </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -7486,13 +9512,41 @@
           <t>الإجمالي</t>
         </is>
       </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>P:27 A:4</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <t>P:26 A:5</t>
+        </is>
+      </c>
+      <c r="D34" s="1" t="inlineStr">
+        <is>
+          <t>P:26 A:5</t>
+        </is>
+      </c>
+      <c r="E34" s="1" t="inlineStr">
+        <is>
+          <t>P:25 A:6</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">المعلم: </t>
-        </is>
-      </c>
+          <t>المعلم:</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> مؤيد اسعد حسين دناوي , أحمد عطا موسى, أحمد محمد عباس كرمل</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr"/>
+      <c r="D35" s="2" t="inlineStr"/>
+      <c r="E35" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
